--- a/sat_attendance.xlsx
+++ b/sat_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annahe/Documents/tbd_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C8A4D7-9439-C343-9D50-7718DF454EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C3F84-855A-734A-AE79-DCCE24325066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="2220" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AE7F3FF5-B668-0442-BB64-766D0C005FD6}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="2024" sheetId="1" r:id="rId1"/>
     <sheet name="2025" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="164">
   <si>
     <t>date</t>
   </si>
@@ -287,9 +300,6 @@
     <t>Christian</t>
   </si>
   <si>
-    <t xml:space="preserve">David M </t>
-  </si>
-  <si>
     <t>Mila</t>
   </si>
   <si>
@@ -483,6 +493,39 @@
   </si>
   <si>
     <t>Sherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>Vigneesh</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Ben L</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Kuran</t>
+  </si>
+  <si>
+    <t>Yash</t>
   </si>
 </sst>
 </file>
@@ -2997,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2FE9E9-CB38-C744-A0D3-5D4C6BC05BB9}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,10 +3082,10 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -3079,16 +3122,16 @@
         <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
       </c>
       <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3122,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -3143,7 +3186,7 @@
         <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
         <v>8</v>
@@ -3209,7 +3252,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
         <v>63</v>
@@ -3241,7 +3284,7 @@
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -3273,10 +3316,10 @@
         <v>37</v>
       </c>
       <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
         <v>89</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
       </c>
       <c r="K11" t="s">
         <v>23</v>
@@ -3296,7 +3339,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -3317,16 +3360,16 @@
         <v>60</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s">
         <v>104</v>
       </c>
-      <c r="M12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" t="s">
-        <v>105</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
         <v>63</v>
@@ -3343,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -3367,10 +3410,10 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -3399,7 +3442,7 @@
         <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
         <v>7</v>
@@ -3408,13 +3451,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
         <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>63</v>
@@ -3423,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3440,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -3455,7 +3498,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
         <v>67</v>
@@ -3478,7 +3521,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -3493,10 +3536,10 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
@@ -3522,19 +3565,19 @@
         <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -3566,10 +3609,10 @@
         <v>38</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
         <v>63</v>
@@ -3607,7 +3650,7 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -3627,7 +3670,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -3636,13 +3679,13 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -3680,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
@@ -3712,7 +3755,7 @@
         <v>38</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -3724,13 +3767,13 @@
         <v>7</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -3756,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
@@ -3768,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -3791,31 +3834,31 @@
         <v>51</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
         <v>60</v>
       </c>
       <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P24" t="s">
         <v>23</v>
@@ -3849,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
@@ -3887,7 +3930,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>5</v>
@@ -3899,28 +3942,28 @@
         <v>77</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>79</v>
@@ -3937,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -3969,13 +4012,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -3987,19 +4030,19 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
         <v>77</v>
       </c>
       <c r="N29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s">
         <v>67</v>
@@ -4008,13 +4051,13 @@
         <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R29" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T29" t="s">
         <v>63</v>
@@ -4034,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
@@ -4055,10 +4098,10 @@
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s">
         <v>79</v>
@@ -4078,55 +4121,55 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J31" t="s">
         <v>5</v>
       </c>
       <c r="K31" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
         <v>37</v>
       </c>
       <c r="O31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="Q31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
       </c>
       <c r="S31" t="s">
+        <v>117</v>
+      </c>
+      <c r="T31" t="s">
         <v>118</v>
       </c>
-      <c r="T31" t="s">
-        <v>119</v>
-      </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="V31" t="s">
         <v>79</v>
@@ -4146,13 +4189,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
         <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
       </c>
       <c r="G32" t="s">
         <v>55</v>
@@ -4161,25 +4204,25 @@
         <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
         <v>87</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
         <v>78</v>
       </c>
       <c r="N32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O32" t="s">
         <v>132</v>
-      </c>
-      <c r="O32" t="s">
-        <v>133</v>
       </c>
       <c r="P32" t="s">
         <v>60</v>
@@ -4188,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="R32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S32" t="s">
         <v>23</v>
@@ -4197,7 +4240,7 @@
         <v>84</v>
       </c>
       <c r="U32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -4225,13 +4268,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
         <v>80</v>
@@ -4240,7 +4283,7 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
@@ -4252,13 +4295,13 @@
         <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P34" t="s">
         <v>43</v>
@@ -4299,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
         <v>55</v>
@@ -4320,10 +4363,10 @@
         <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s">
         <v>7</v>
@@ -4332,16 +4375,16 @@
         <v>43</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q35" t="s">
         <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -4367,10 +4410,13 @@
         <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -4387,7 +4433,7 @@
         <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
@@ -4408,7 +4454,7 @@
         <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M37" t="s">
         <v>82</v>
@@ -4446,22 +4492,22 @@
         <v>7</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s">
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O38" t="s">
         <v>8</v>
       </c>
       <c r="P38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q38" t="s">
         <v>79</v>
@@ -4525,7 +4571,7 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -4578,10 +4624,10 @@
         <v>43</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s">
         <v>8</v>
@@ -4601,13 +4647,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>55</v>
@@ -4622,7 +4668,7 @@
         <v>60</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s">
         <v>7</v>
@@ -4645,7 +4691,7 @@
         <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
@@ -4657,7 +4703,7 @@
         <v>43</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -4670,61 +4716,239 @@
       <c r="A44" s="3">
         <v>45955</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" t="s">
+        <v>160</v>
+      </c>
+      <c r="P44" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45962</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>45969</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>45963</v>
+      </c>
+      <c r="B46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>161</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45976</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>45969</v>
+      </c>
+      <c r="B47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>45983</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="B49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>45990</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="B50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>45997</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="B51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>46004</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>46011</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>46018</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
